--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H2">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I2">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J2">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>13807.03948469696</v>
+        <v>8897.180540830341</v>
       </c>
       <c r="R2">
-        <v>124263.3553622726</v>
+        <v>80074.62486747307</v>
       </c>
       <c r="S2">
-        <v>0.08638157655753324</v>
+        <v>0.06296118791142036</v>
       </c>
       <c r="T2">
-        <v>0.08638157655753326</v>
+        <v>0.06296118791142037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H3">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I3">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J3">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>11982.78288516763</v>
+        <v>11723.71928661495</v>
       </c>
       <c r="R3">
-        <v>107845.0459665087</v>
+        <v>105513.4735795345</v>
       </c>
       <c r="S3">
-        <v>0.0749684013227203</v>
+        <v>0.08296328141683623</v>
       </c>
       <c r="T3">
-        <v>0.0749684013227203</v>
+        <v>0.08296328141683623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H4">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I4">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J4">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>16754.04169102729</v>
+        <v>16391.82513646118</v>
       </c>
       <c r="R4">
-        <v>150786.3752192456</v>
+        <v>147526.4262281506</v>
       </c>
       <c r="S4">
-        <v>0.1048190335506484</v>
+        <v>0.1159972845208285</v>
       </c>
       <c r="T4">
-        <v>0.1048190335506484</v>
+        <v>0.1159972845208285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I5">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J5">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>33081.63532525247</v>
+        <v>21788.68828200824</v>
       </c>
       <c r="R5">
-        <v>297734.7179272723</v>
+        <v>196098.1945380741</v>
       </c>
       <c r="S5">
-        <v>0.2069700617329272</v>
+        <v>0.1541883623661811</v>
       </c>
       <c r="T5">
-        <v>0.2069700617329272</v>
+        <v>0.1541883623661811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I6">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J6">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>28710.72064566438</v>
@@ -818,10 +818,10 @@
         <v>258396.4858109794</v>
       </c>
       <c r="S6">
-        <v>0.1796241197270569</v>
+        <v>0.2031723498639119</v>
       </c>
       <c r="T6">
-        <v>0.1796241197270569</v>
+        <v>0.2031723498639119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I7">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J7">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>40142.64593513661</v>
@@ -880,10 +880,10 @@
         <v>361283.8134162296</v>
       </c>
       <c r="S7">
-        <v>0.2511461669180606</v>
+        <v>0.2840707415551528</v>
       </c>
       <c r="T7">
-        <v>0.2511461669180605</v>
+        <v>0.2840707415551528</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>127.759785</v>
       </c>
       <c r="I8">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J8">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>4984.529401432985</v>
+        <v>3282.980308939716</v>
       </c>
       <c r="R8">
-        <v>44860.76461289686</v>
+        <v>29546.82278045745</v>
       </c>
       <c r="S8">
-        <v>0.031184926252321</v>
+        <v>0.02323211709508097</v>
       </c>
       <c r="T8">
-        <v>0.031184926252321</v>
+        <v>0.02323211709508098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>127.759785</v>
       </c>
       <c r="I9">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J9">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>4325.947909999546</v>
@@ -1004,10 +1004,10 @@
         <v>38933.53118999592</v>
       </c>
       <c r="S9">
-        <v>0.02706461446609881</v>
+        <v>0.03061271129731157</v>
       </c>
       <c r="T9">
-        <v>0.02706461446609881</v>
+        <v>0.03061271129731157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>127.759785</v>
       </c>
       <c r="I10">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J10">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>6048.437356488987</v>
@@ -1066,10 +1066,10 @@
         <v>54435.93620840088</v>
       </c>
       <c r="S10">
-        <v>0.0378410994726336</v>
+        <v>0.04280196397327658</v>
       </c>
       <c r="T10">
-        <v>0.03784109947263361</v>
+        <v>0.04280196397327658</v>
       </c>
     </row>
   </sheetData>
